--- a/normas/Resumen UNE-EN 301549-2022.xlsx
+++ b/normas/Resumen UNE-EN 301549-2022.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseR\Mi unidad\curso2021-2022\accesibilidad Castellon\Referencias\normas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\accesibilidad\normas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F49EA6-6CD8-442A-BAB3-A694B5DB1A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24D03BF-2502-406F-81DA-6097428ACC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="1" r:id="rId1"/>
     <sheet name="Web" sheetId="2" r:id="rId2"/>
+    <sheet name="Créditos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Apps!$A$1:$K$163</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="531">
   <si>
     <t>Número requisito</t>
   </si>
@@ -1740,6 +1741,12 @@
   <si>
     <t>Cuando la app permita visualizar principalmente materiales que contienen vídeo con contenido de
 audio asociado</t>
+  </si>
+  <si>
+    <t>Autor: José R. Hilera</t>
+  </si>
+  <si>
+    <t>Archivo disponible en GitHub</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1904,6 +1911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2187,7 +2195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMF163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -10034,4 +10042,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.29999999999999993" footer="0.29999999999999993"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3469F2DA-B503-4C9C-86C2-72BE7EDB1CB9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="Author: José R. Hilera" xr:uid="{8D99B69D-7950-4C1A-82B9-38AFB0C52A4C}"/>
+    <hyperlink ref="A2" r:id="rId2" display="This is an automatic translation from Spanish version of the archive available in GitHub" xr:uid="{14CCAC63-0921-4789-BE1C-CD60CCBF3EAC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>